--- a/LOG___need_to_know.xlsx
+++ b/LOG___need_to_know.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\shorts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B03E4-8003-4B81-ADD0-008D192C3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5591E5-FA9B-41F1-98B1-D54E58CE2B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__LOG__" sheetId="10" r:id="rId1"/>
-    <sheet name="PHP" sheetId="1" r:id="rId2"/>
-    <sheet name="SQL" sheetId="7" r:id="rId3"/>
-    <sheet name="OOP" sheetId="3" r:id="rId4"/>
-    <sheet name="Laravel" sheetId="8" r:id="rId5"/>
-    <sheet name="Principles" sheetId="9" r:id="rId6"/>
-    <sheet name="Patterns" sheetId="4" r:id="rId7"/>
-    <sheet name="JS" sheetId="6" r:id="rId8"/>
-    <sheet name="Other" sheetId="5" r:id="rId9"/>
+    <sheet name="Вопросы" sheetId="11" r:id="rId2"/>
+    <sheet name="PHP" sheetId="1" r:id="rId3"/>
+    <sheet name="SQL" sheetId="7" r:id="rId4"/>
+    <sheet name="OOP" sheetId="3" r:id="rId5"/>
+    <sheet name="Laravel" sheetId="8" r:id="rId6"/>
+    <sheet name="Principles" sheetId="9" r:id="rId7"/>
+    <sheet name="Patterns" sheetId="4" r:id="rId8"/>
+    <sheet name="JS" sheetId="6" r:id="rId9"/>
+    <sheet name="Other" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="150">
   <si>
     <t>#</t>
   </si>
@@ -605,10 +606,22 @@
     <t>Разработка структуры данных по конспектам, создание баннера Vivat</t>
   </si>
   <si>
-    <t>Поиск клиентов по видео, пересмотреть лог их ведения</t>
-  </si>
-  <si>
     <t>Разобраться с импортом по репе Алексея</t>
+  </si>
+  <si>
+    <t>Laravel-creative - блог</t>
+  </si>
+  <si>
+    <t>Поиск клиентов по видео, пересмотреть лог их ведения; искать работу на hh.ru</t>
+  </si>
+  <si>
+    <t>Вопросы</t>
+  </si>
+  <si>
+    <t>Проблема с докером. Можно ли поднять сторонний гит-репозиторий у себя в контейнере, если там нет докер-файла?</t>
+  </si>
+  <si>
+    <t>Создавать новые фичи после постов в отдельной ветке!</t>
   </si>
 </sst>
 </file>
@@ -618,12 +631,36 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,7 +729,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +766,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -803,37 +846,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -865,9 +877,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -877,10 +889,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -892,92 +904,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1307,499 +1325,1030 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4CD06A-7038-4389-B432-233E484BEA4C}">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="30" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="88.140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="12" style="29" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
         <v>44715</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="38" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="29" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="34"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
       <c r="B8" s="34"/>
     </row>
-    <row r="9" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+    <row r="9" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>44716</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="39"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="39"/>
+      <c r="B11" s="34"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="39"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="39"/>
-    </row>
-    <row r="15" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+    </row>
+    <row r="16" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>44717</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B16" s="39"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="39"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="39"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="39"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="39"/>
-    </row>
-    <row r="21" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="B18" s="40"/>
+      <c r="C18" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+    </row>
+    <row r="24" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33">
         <v>44718</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="38" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="29" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="30" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="34"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="34"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="34"/>
-    </row>
-    <row r="27" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
         <v>44719</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="38"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="34"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="34"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="34"/>
-    </row>
-    <row r="33" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="B32" s="37"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="37"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="37"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="37"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="37"/>
+    </row>
+    <row r="37" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+    </row>
+    <row r="38" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
         <v>44720</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="38"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="34"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="34"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="34"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="34"/>
-    </row>
-    <row r="39" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+      <c r="B39" s="37"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="37"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="37"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="37"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="37"/>
+    </row>
+    <row r="44" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="43"/>
+    </row>
+    <row r="45" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
         <v>44721</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="38"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="34"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="34"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="34"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="34"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="34"/>
-    </row>
-    <row r="45" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="B46" s="37"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="37"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="37"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="37"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="37"/>
+    </row>
+    <row r="51" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+    </row>
+    <row r="52" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
         <v>44722</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="38"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="34"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="34"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
-      <c r="B48" s="34"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="34"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="34"/>
-    </row>
-    <row r="51" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="B53" s="37"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="37"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="37"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="37"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="37"/>
+    </row>
+    <row r="58" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="43"/>
+    </row>
+    <row r="59" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
         <v>44723</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="B59" s="34"/>
+      <c r="C59" s="29"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="39"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-      <c r="B53" s="39"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="39"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="39"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="39"/>
-    </row>
-    <row r="57" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+      <c r="B60" s="34"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
+    </row>
+    <row r="65" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="43"/>
+    </row>
+    <row r="66" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="33">
         <v>44724</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="B66" s="34"/>
+      <c r="C66" s="29"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="39"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="35"/>
-      <c r="B59" s="39"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="35"/>
-      <c r="B60" s="39"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="35"/>
-      <c r="B61" s="39"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="39"/>
-    </row>
-    <row r="63" spans="1:3" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
-        <v>44724</v>
-      </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="B67" s="34"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="34"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+    </row>
+    <row r="72" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="43"/>
+    </row>
+    <row r="73" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
+        <v>44725</v>
+      </c>
+      <c r="B73" s="34"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="39"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="39"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="39"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="39"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="39"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="34"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="34"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="34"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="34"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="34"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
       <c r="B74" s="34"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="33"/>
       <c r="B75" s="34"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
       <c r="B76" s="34"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="33"/>
       <c r="B77" s="34"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
       <c r="B78" s="34"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="34"/>
-    </row>
-    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="34"/>
-      <c r="C81" s="30"/>
-      <c r="D81"/>
-    </row>
-    <row r="82" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="34"/>
-      <c r="C82" s="30"/>
-      <c r="D82"/>
-    </row>
-    <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="30"/>
-      <c r="D83"/>
-    </row>
-    <row r="84" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="30"/>
-      <c r="D84"/>
-    </row>
-    <row r="85" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="30"/>
-      <c r="D85"/>
-    </row>
-    <row r="86" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="30"/>
-      <c r="D86"/>
-    </row>
-    <row r="87" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="34"/>
-      <c r="C87" s="30"/>
-      <c r="D87"/>
-    </row>
-    <row r="88" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="30"/>
-      <c r="D88"/>
-    </row>
-    <row r="89" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="30"/>
-      <c r="D89"/>
-    </row>
-    <row r="90" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="34"/>
-      <c r="C90" s="30"/>
-      <c r="D90"/>
-    </row>
-    <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="30"/>
-      <c r="D91"/>
-    </row>
-    <row r="92" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="34"/>
-      <c r="C92" s="30"/>
-      <c r="D92"/>
-    </row>
-    <row r="93" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="34"/>
-      <c r="C93" s="30"/>
-      <c r="D93"/>
-    </row>
-    <row r="94" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="34"/>
-      <c r="C94" s="30"/>
-      <c r="D94"/>
-    </row>
-    <row r="95" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="30"/>
-      <c r="D95"/>
-    </row>
-    <row r="96" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="30"/>
-      <c r="D96"/>
+    <row r="79" spans="1:3" s="44" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="43"/>
+    </row>
+    <row r="80" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="33">
+        <v>44726</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="37"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="33"/>
+      <c r="B82" s="37"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="33"/>
+      <c r="B83" s="37"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="33"/>
+      <c r="B84" s="37"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="33"/>
+      <c r="B85" s="37"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+      <c r="B89" s="32"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
+      <c r="B91" s="32"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="32"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="32"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="32"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="32"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="32"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="32"/>
+    </row>
+    <row r="98" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="29"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="29"/>
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="29"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="29"/>
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="29"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="29"/>
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="29"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="29"/>
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="29"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="29"/>
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="29"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="29"/>
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="29"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="29"/>
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="29"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="29"/>
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="29"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="29"/>
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="29"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="29"/>
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="29"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="29"/>
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="29"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="29"/>
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="29"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="29"/>
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="29"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="29"/>
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="29"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="29"/>
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="29"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="29"/>
+      <c r="D113"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E112107-8B6E-4B7C-8642-75BBCD1AB1CF}">
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="88.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="D2" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>22</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>25</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>27</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>28</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1808,6 +2357,271 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FB8377-2C6C-44A0-B8AB-3BBCF475599A}">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="129.42578125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -2229,7 +3043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CB8B5A-967B-4D66-A3D4-357FC12E757B}">
   <dimension ref="A1:E48"/>
   <sheetViews>
@@ -2589,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5895DE80-A121-4DDA-9359-9FC24630ABA1}">
   <dimension ref="A1:E50"/>
   <sheetViews>
@@ -3023,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986E1A69-8926-406F-82CD-D9A25609509C}">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -3381,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B628B-6517-41D4-9458-EB3BB21B2E6E}">
   <dimension ref="A1:E52"/>
   <sheetViews>
@@ -3795,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6666050-B555-4D23-9B9A-FA2D3906B943}">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -4240,7 +5054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D2F633-C53B-4E4B-86F8-385802AEDC50}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -4578,423 +5392,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E112107-8B6E-4B7C-8642-75BBCD1AB1CF}">
-  <dimension ref="A1:E47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="88.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
-      <c r="D2" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>19</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>20</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>21</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>22</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>23</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>24</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>25</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>26</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>27</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>28</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>